--- a/Availability/august.xlsx
+++ b/Availability/august.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9825E8-C7F0-4DB7-A26C-4838F9D3CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3750" yWindow="1854" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C2">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D2">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E2">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -36,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Timestamp</t>
   </si>
@@ -80,18 +98,12 @@
     <t>annac23@vt.edu</t>
   </si>
   <si>
-    <t>Anna Cottrell</t>
-  </si>
-  <si>
     <t>Saturday: 8/21/21, Sunday: 8/22/21</t>
   </si>
   <si>
     <t>alexandriarush9@vt.edu</t>
   </si>
   <si>
-    <t>Alexandria Rush</t>
-  </si>
-  <si>
     <t>Tuesday: 8/17/21</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>caitlynrs237@vt.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Caity </t>
-  </si>
-  <si>
     <t>Tuesday: 8/17/21, Wednesday: 8/18/21, Thursday: 8/19/21, Friday: 8/20/21, Saturday: 8/21/21</t>
   </si>
   <si>
@@ -173,18 +182,12 @@
     <t>hjayla@vt.edu</t>
   </si>
   <si>
-    <t>Jayla Harris</t>
-  </si>
-  <si>
     <t>Sunday: 8/22/21, Friday: 8/27/21, Sunday: 8/29/21</t>
   </si>
   <si>
     <t>dayanaj9642@vt.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Dayana </t>
-  </si>
-  <si>
     <t>Monday: 8/23/21, Wednesday: 8/25/21, Monday: 8/30/21</t>
   </si>
   <si>
@@ -194,9 +197,6 @@
     <t>ncaro@vt.edu</t>
   </si>
   <si>
-    <t>nyla</t>
-  </si>
-  <si>
     <t>Sunday: 8/15/21, Friday: 8/20/21, Saturday: 8/21/21, Sunday: 8/22/21, Friday: 8/27/21</t>
   </si>
   <si>
@@ -206,9 +206,6 @@
     <t>dai@vt.edu</t>
   </si>
   <si>
-    <t>Alex Danilov</t>
-  </si>
-  <si>
     <t>Saturday:8/14/21, Saturday: 8/21/21, Saturday: 8/28/21</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>emmanuelpm@vt.edu</t>
   </si>
   <si>
-    <t>Emmanuel McNeill</t>
-  </si>
-  <si>
     <t>Saturday:8/14/21, Sunday: 8/15/21, Tuesday: 8/17/21, Wednesday: 8/18/21, Saturday: 8/21/21, Tuesday: 8/24/21, Wednesday: 8/25/21, Saturday: 8/28/21, Tuesday: 8/31/21</t>
   </si>
   <si>
@@ -261,72 +255,113 @@
   </si>
   <si>
     <t>Tuesday: 8/17/21, Thursday: 8/19/21, Saturday: 8/21/21, Tuesday: 8/24/21, Thursday: 8/26/21, Saturday: 8/28/21, Tuesday: 8/31/21</t>
+  </si>
+  <si>
+    <t>David SRA</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Caity</t>
+  </si>
+  <si>
+    <t>Dayana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel </t>
+  </si>
+  <si>
+    <t>Jayla</t>
+  </si>
+  <si>
+    <t>Nyla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -516,28 +551,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="4" width="85.29"/>
-    <col customWidth="1" min="5" max="11" width="21.57"/>
+    <col min="1" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="85.27734375" customWidth="1"/>
+    <col min="5" max="11" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,341 +592,344 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>44417.948966145836</v>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>44418.814750949074</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
-        <v>44417.41616861111</v>
+        <v>44417.435631041662</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
-        <v>44417.41864657408</v>
+        <v>44417.418646574079</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
-        <v>44417.43563104166</v>
+        <v>44417.664237928242</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>44417.664313414352</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>44418.016568287036</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>44417.416168611111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>44417.465015474532</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>44417.46501547453</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>44418.320483564814</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>44418.903523912042</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>44418.883241296295</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>44418.874076782406</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>44417.948966145836</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>44418.298225868057</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>44417.465078043984</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>44417.465078043984</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>44417.668607361113</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>44417.473440069443</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>44417.47344006944</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>44417.66423792824</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>44417.66431341435</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>44418.534474004628</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>44417.83711168982</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>44418.911439699077</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>44417.66860736111</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5">
-        <v>44417.83711168982</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>44418.016568287036</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>44418.29822586806</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>44418.320483564814</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>44418.53447400463</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>44418.814750949074</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>44418.874076782406</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>44418.883241296295</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="4" t="s">
+    <row r="22" spans="1:5" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>44418.916995243053</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>44418.90352391204</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
-        <v>44418.91143969908</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>44418.91699524305</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="C2:C22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Availability/august.xlsx
+++ b/Availability/august.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9825E8-C7F0-4DB7-A26C-4838F9D3CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094142E8-AA96-446E-9A9F-F83F59AE56EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="1854" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,8 +564,8 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
